--- a/R_code/0203/delete data.xlsx
+++ b/R_code/0203/delete data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\R\R_code\0203\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04F49A47-8BD3-45D1-A30C-D02EC3CFCCC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E035E513-CBC2-4729-8ECE-BB4C3E3FA5F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'delete data'!$A$1:$G$183</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>compliance</t>
   </si>
@@ -65,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1010,12 +1018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection sqref="A1:G183"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D183" sqref="A1:D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1064,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f>IF(E2&lt;F2, 111, IF(E2-F2&gt;=1.3, 111, 0))</f>
+        <f>IF(E2&lt;F2, 111, IF(E2-F2&gt;=1.1, 111, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">IF(E3&lt;F3, 111, IF(E3-F3&gt;=1.3, 111, 0))</f>
+        <f t="shared" ref="G3:G66" si="1">IF(E3&lt;F3, 111, IF(E3-F3&gt;=1.1, 111, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2773,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="3">IF(E67&lt;F67, 111, IF(E67-F67&gt;=1.3, 111, 0))</f>
+        <f t="shared" ref="G67:G130" si="3">IF(E67&lt;F67, 111, IF(E67-F67&gt;=1.1, 111, 0))</f>
         <v>111</v>
       </c>
     </row>
@@ -3002,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3024,7 +3032,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -3552,7 +3560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3</v>
       </c>
@@ -3574,10 +3582,10 @@
       </c>
       <c r="G99">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3599,10 +3607,10 @@
       </c>
       <c r="G100">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3624,10 +3632,10 @@
       </c>
       <c r="G101">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3</v>
       </c>
@@ -3649,7 +3657,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -3777,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3799,7 +3807,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
@@ -3877,7 +3885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3899,7 +3907,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -3927,7 +3935,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>2</v>
       </c>
@@ -3949,7 +3957,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -4277,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4299,7 +4307,7 @@
       </c>
       <c r="G128">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.45">
@@ -4327,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>2</v>
       </c>
@@ -4349,7 +4357,7 @@
       </c>
       <c r="G130">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
@@ -4373,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G183" si="5">IF(E131&lt;F131, 111, IF(E131-F131&gt;=1.3, 111, 0))</f>
+        <f t="shared" ref="G131:G183" si="5">IF(E131&lt;F131, 111, IF(E131-F131&gt;=1.1, 111, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -4452,7 +4460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>2</v>
       </c>
@@ -4474,7 +4482,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4799,7 +4807,7 @@
       </c>
       <c r="G148">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
@@ -4902,7 +4910,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4924,7 +4932,7 @@
       </c>
       <c r="G153">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -4977,7 +4985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4999,7 +5007,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.45">
@@ -5077,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5099,10 +5107,10 @@
       </c>
       <c r="G160">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>2</v>
       </c>
@@ -5124,7 +5132,7 @@
       </c>
       <c r="G161">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
@@ -5678,7 +5686,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G183">
+  <autoFilter ref="A1:G183" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="0"/>
@@ -5689,4 +5697,1728 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289B3631-E602-4758-A9AB-A0EA5F5D9D1C}">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>